--- a/biology/Zoologie/Acarus/Acarus.xlsx
+++ b/biology/Zoologie/Acarus/Acarus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acarus est un genre d'acariens de la famille des Acaridae. Il est créé en 1758 par le naturaliste suédois Carl von Linné avec pour espèce type Acarus siro, le Ciron de la farine. 
-Ce sont les travaux de révision des années 1960 par l'acarologue britannique Donald Alister Griffiths qui ont redéfinit cet ensemble autour de la description de Linné d'Acarus siro[3],[4],[5].
+Ce sont les travaux de révision des années 1960 par l'acarologue britannique Donald Alister Griffiths qui ont redéfinit cet ensemble autour de la description de Linné d'Acarus siro.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 décembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 décembre 2021) :
 Acarus ananas (Tryon, 1898)
 Acarus beschkovi (Mitov, 1994)
 Acarus bomiensis Wang, 1982
